--- a/biology/Botanique/Vignoble_de_Seyssuel/Vignoble_de_Seyssuel.xlsx
+++ b/biology/Botanique/Vignoble_de_Seyssuel/Vignoble_de_Seyssuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble de Seyssuel se situe dans la vallée du Rhône. Présent à l’époque romaine, il a été longtemps abandonné puis replanté à l’époque contemporaine. Les vins produits peuvent porter l’appellation Collines-rhodaniennes.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'époque de la colonisation de la Gaule, les romains ont planté quelques vignes sur la rive gauche du Rhône, à la hauteur de la commune de Seyssuel. La qualité des terroirs est vantée par Plutarque, Pline l'Ancien, et Olivier de Serres.
 Au XIXe siècle, la ville de Vienne tire encore sa principale ressource de la viticulture, 100 hectares de vignes y sont présents. En 1883, le phylloxéra détruit la centaine d'hectares de vigne alors présente, et n'est pas replanté.
 Lorsque l'INAO entreprend la classification des AOC à la fin des années 1930, le vignoble est toujours inexistant.
-Dans les années 1990, Pierre Gaillard, Yves Cuilleron et François Villard décident d'exploiter ces parcelles abandonnées[1]. En 1996, ils créent le domaine Les Vins de Vienne pour planter 11 hectares (9,5 ha en syrah et 1,5ha en viognier), vignes qui sont vendangées pour la première fois en 1998[2]. Louis Chèze fut le quatrième vigneron à s'installer en 1999.
+Dans les années 1990, Pierre Gaillard, Yves Cuilleron et François Villard décident d'exploiter ces parcelles abandonnées. En 1996, ils créent le domaine Les Vins de Vienne pour planter 11 hectares (9,5 ha en syrah et 1,5ha en viognier), vignes qui sont vendangées pour la première fois en 1998. Louis Chèze fut le quatrième vigneron à s'installer en 1999.
 Une procédure avec l’INAO est en cours pour obtenir à terme une Appellation d'Origine Contrôlée.
 </t>
         </is>
@@ -547,31 +561,12 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À la fin des années 1990, le vignoble est replanté sur 11 hectares. Il est planté en 2017 sur 45 hectares environ[3], et est toujours augmentation.
-Encépagement
-Le vignoble est planté majoritairement en rouge, en syrah, et en viognier pour le blanc.
-Rendements
-La densité de plantation varie de 4 500 pieds/ha pour certaines parcelles, jusqu’à 10 000 pieds/ha.
-Les rendements maximums autorisés sont de 80 hL/ha, mais la tendance est inférieure dans le cadre d'une viticulture de qualité cherchant à concentrer les raisins. Les rendements réels sont proches de 40 hL/ha.
-Pratiques culturales
-La vigne est conduite sur des parcelles plus ou moins pentues. La pente peut aller à plus de 40%, où il est alors nécessaire de la travailler sur échalas. Le reste à plat, peut être conduit en palissage classique, et mécanisable.
-			Echalas sur le vignoble de Seyssuel
-			Echalas doubles sur le vignoble de Seyssuel
-Production
-Géologie
-L'altitude du vignoble est d'environ 250 mètres, en moyenne.
-Les sols sont composés de différents schistes (micacés et quartzeux)[4].
-			Terroir de Seyssuel, schistes de petite taille et roche
-			Rang de vigne du vignoble de Seyssuel et le sol de schistes
-Orographie
-Le Rhône passe en contrebas des coteaux, à l'Ouest.
-Climat
-Le climat, bien que plus au nord, est plus sec que celui des appellations proches comme Côte-Rôtie ou Condrieu. La vallée du Rhône n'étant large que de 700 m à cet endroit favorise le vent.
-Le vignoble bénéficie de 2 022 heures d'ensoleillement par an[5], avec une exposition Sud/Sud-Ouest. Le climat est tempéré/continental.
-Les relevés météorologiques qui suivent sont issus de la station de Reventin-Vaugris, à une dizaine de kilomètres au sud-est de Seyssuel.
-Source : Données climatiques 2013 du Bulletin de la Société des amis de Vienne, d'après la station de Météo-France à Reventin-Vaugris, situé sur le plateau de l'Amballan, en fonction depuis le 1er janvier 2004[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin des années 1990, le vignoble est replanté sur 11 hectares. Il est planté en 2017 sur 45 hectares environ, et est toujours augmentation.
+</t>
         </is>
       </c>
     </row>
@@ -596,10 +591,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vinification</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble est planté majoritairement en rouge, en syrah, et en viognier pour le blanc.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,13 +628,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Types de vins et gastronomie</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ces vins sont à la hauteur de la plupart de ceux des vignobles voisins, classés en AOC. Bien que jouissant d'une notoriété actuelle moins forte que ces autres appellations, les producteurs du vignobles produisent des cuvées typiques des Côtes-du-Rhône septentrionales, composant parfois leur haut de gamme.
-Millésimes</t>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La densité de plantation varie de 4 500 pieds/ha pour certaines parcelles, jusqu’à 10 000 pieds/ha.
+Les rendements maximums autorisés sont de 80 hL/ha, mais la tendance est inférieure dans le cadre d'une viticulture de qualité cherchant à concentrer les raisins. Les rendements réels sont proches de 40 hL/ha.
+</t>
         </is>
       </c>
     </row>
@@ -653,13 +666,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Commercialisation</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Producteurs
-Les principaux représentants sont les « Vins de Vienne » et les « Vins de Seyssuel ». Les noms des cuvées adoptent souvent un style latin.
+          <t>Pratiques culturales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vigne est conduite sur des parcelles plus ou moins pentues. La pente peut aller à plus de 40%, où il est alors nécessaire de la travailler sur échalas. Le reste à plat, peut être conduit en palissage classique, et mécanisable.
+			Echalas sur le vignoble de Seyssuel
+			Echalas doubles sur le vignoble de Seyssuel
 </t>
         </is>
       </c>
@@ -685,10 +705,226 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'altitude du vignoble est d'environ 250 mètres, en moyenne.
+Les sols sont composés de différents schistes (micacés et quartzeux).
+			Terroir de Seyssuel, schistes de petite taille et roche
+			Rang de vigne du vignoble de Seyssuel et le sol de schistes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rhône passe en contrebas des coteaux, à l'Ouest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le climat, bien que plus au nord, est plus sec que celui des appellations proches comme Côte-Rôtie ou Condrieu. La vallée du Rhône n'étant large que de 700 m à cet endroit favorise le vent.
+Le vignoble bénéficie de 2 022 heures d'ensoleillement par an, avec une exposition Sud/Sud-Ouest. Le climat est tempéré/continental.
+Les relevés météorologiques qui suivent sont issus de la station de Reventin-Vaugris, à une dizaine de kilomètres au sud-est de Seyssuel.
+Source : Données climatiques 2013 du Bulletin de la Société des amis de Vienne, d'après la station de Météo-France à Reventin-Vaugris, situé sur le plateau de l'Amballan, en fonction depuis le 1er janvier 2004.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Types de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces vins sont à la hauteur de la plupart de ceux des vignobles voisins, classés en AOC. Bien que jouissant d'une notoriété actuelle moins forte que ces autres appellations, les producteurs du vignobles produisent des cuvées typiques des Côtes-du-Rhône septentrionales, composant parfois leur haut de gamme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Producteurs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux représentants sont les « Vins de Vienne » et les « Vins de Seyssuel ». Les noms des cuvées adoptent souvent un style latin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_Seyssuel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Manifestations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">La fête des « pressailles », fête traditionnelle célébrant la fin des vinifications dans la vallée du Rhône, donne lieu à une manifestation de découverte des vins et du vignoble, se déroulant le premier samedi de novembre. Elle est organisée par l’association Vitis Vienna.
 </t>
